--- a/data/trans_dic/P34_R-Habitat-trans_dic.xlsx
+++ b/data/trans_dic/P34_R-Habitat-trans_dic.xlsx
@@ -708,40 +708,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.2948355444814342</v>
+        <v>0.2917241748387963</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.2266440120487446</v>
+        <v>0.232072571980988</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.2814971676494534</v>
+        <v>0.2844467148385671</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.2555631069020945</v>
+        <v>0.2546312503539282</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.2360484552133599</v>
+        <v>0.2340851816185457</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.2057742828388786</v>
+        <v>0.2079345011665025</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.2407862681055108</v>
+        <v>0.2435569425147067</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.2828212704717997</v>
+        <v>0.2797975714717494</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.2741896021121074</v>
+        <v>0.2725715501946628</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>0.2273973961085184</v>
+        <v>0.2263544747839249</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>0.2707624175479845</v>
+        <v>0.2727213611797045</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>0.2786737426644059</v>
+        <v>0.2789736778382583</v>
       </c>
     </row>
     <row r="6">
@@ -752,40 +752,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.363873142742972</v>
+        <v>0.3603986784163082</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.2959253185937086</v>
+        <v>0.3022267038506458</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.3517757932265922</v>
+        <v>0.3557205983400277</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.3288526464977384</v>
+        <v>0.3276714341429824</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.3032753336273341</v>
+        <v>0.3006880189751584</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.2749311352601325</v>
+        <v>0.2726872340121382</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.3097264734147699</v>
+        <v>0.310461411306696</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.3366812496777484</v>
+        <v>0.3369769472671304</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.3224077863979349</v>
+        <v>0.3226134952573206</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>0.2743808274792561</v>
+        <v>0.2741285076034349</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>0.3253234268022406</v>
+        <v>0.3229104893079567</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>0.3244477834972352</v>
+        <v>0.3226387657808469</v>
       </c>
     </row>
     <row r="7">
@@ -844,40 +844,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.3461953557063441</v>
+        <v>0.3462071898599995</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.2793050900264222</v>
+        <v>0.2772668307621384</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.3101456709053216</v>
+        <v>0.3114038217736677</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.311632382290318</v>
+        <v>0.3104439204695333</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.267795019813738</v>
+        <v>0.2694786761751584</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.2817124863496759</v>
+        <v>0.2825394023619384</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.2408247545814058</v>
+        <v>0.2400385361561505</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.3046008417712907</v>
+        <v>0.3049934252369347</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.3168445953590882</v>
+        <v>0.3158834746225445</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>0.2873771547313766</v>
+        <v>0.2884547967668716</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>0.2829581709923659</v>
+        <v>0.2843628413328472</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>0.3155885438014268</v>
+        <v>0.3149355461189371</v>
       </c>
     </row>
     <row r="9">
@@ -888,40 +888,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.4113943402169613</v>
+        <v>0.4086077455262646</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.3395126292605984</v>
+        <v>0.337707346115562</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.372413957606525</v>
+        <v>0.3708714630472817</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.3786934536424361</v>
+        <v>0.376262030968743</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.3259437856025774</v>
+        <v>0.3269789318388785</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.3421288810141324</v>
+        <v>0.3419383065962585</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.2988906235214152</v>
+        <v>0.2957597242459415</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.3543671467681543</v>
+        <v>0.3567885240537307</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.360452164290695</v>
+        <v>0.3603211445197608</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>0.331200478896378</v>
+        <v>0.3294547346667894</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>0.324285731163655</v>
+        <v>0.3269781839440588</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>0.357362717863121</v>
+        <v>0.3576726181799518</v>
       </c>
     </row>
     <row r="10">
@@ -980,40 +980,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.3241046683247275</v>
+        <v>0.3285042968457861</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.2832544161630053</v>
+        <v>0.2852865614283913</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3116486069376634</v>
+        <v>0.3147315966035883</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.3061000753292772</v>
+        <v>0.307510470375003</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.2326639582317669</v>
+        <v>0.2329488596320915</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2644868963693131</v>
+        <v>0.2612468005160119</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.3115343386279769</v>
+        <v>0.3127754000951689</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.3043158800017722</v>
+        <v>0.3003620732819167</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.2913424115245252</v>
+        <v>0.2907996840704324</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>0.2831435080243858</v>
+        <v>0.2828114901064538</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>0.3203562660085724</v>
+        <v>0.3201302502796349</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>0.3128383902553856</v>
+        <v>0.3124059167037829</v>
       </c>
     </row>
     <row r="12">
@@ -1024,40 +1024,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.4042177012831875</v>
+        <v>0.4032172752297148</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3584008324535014</v>
+        <v>0.3529230437304154</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.3826378345204415</v>
+        <v>0.3847224812322381</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.3852336364481703</v>
+        <v>0.3826267833097319</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.3001636198041985</v>
+        <v>0.2997460360588428</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.3297270935936714</v>
+        <v>0.3292432020370522</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.3815437554127947</v>
+        <v>0.3790644503291077</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.3637163054686546</v>
+        <v>0.3632809925356451</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.3407264574441917</v>
+        <v>0.3399112786009053</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>0.3331427872382585</v>
+        <v>0.3315584279996054</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>0.3718040316932494</v>
+        <v>0.3716944466216887</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>0.3606351082564198</v>
+        <v>0.3623887993502635</v>
       </c>
     </row>
     <row r="13">
@@ -1116,40 +1116,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.425123433057128</v>
+        <v>0.4248579688797041</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.3319702338835417</v>
+        <v>0.3309622052735383</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.4081424768359462</v>
+        <v>0.4078350640768349</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.3893667789673415</v>
+        <v>0.3901215135582679</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.3574634368219435</v>
+        <v>0.3601953415096279</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.2840376533020627</v>
+        <v>0.2826757140984771</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.3340691542824097</v>
+        <v>0.3300422695068957</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.364470362944126</v>
+        <v>0.3673331605503419</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.3992109849303326</v>
+        <v>0.3986151091241683</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>0.3146985040264991</v>
+        <v>0.3163538324460134</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>0.3745544698341703</v>
+        <v>0.375446104113808</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>0.3842571598481583</v>
+        <v>0.3841272285665417</v>
       </c>
     </row>
     <row r="15">
@@ -1160,40 +1160,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4870165835471057</v>
+        <v>0.490476299717238</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3969297511215522</v>
+        <v>0.395103043531247</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.4724808455469852</v>
+        <v>0.4733798734286627</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.4539461212326156</v>
+        <v>0.4602200018836087</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.4182089686899736</v>
+        <v>0.4224036509537617</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.3423327169874085</v>
+        <v>0.3416864010779491</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.3929218651945796</v>
+        <v>0.3898116699570892</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.4183112986078646</v>
+        <v>0.4205044971208647</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.4435435676403605</v>
+        <v>0.4442087351291275</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>0.3575015762090538</v>
+        <v>0.3593177286914933</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>0.4183245337223567</v>
+        <v>0.4202387301399613</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>0.4277203421946741</v>
+        <v>0.4272756539045715</v>
       </c>
     </row>
     <row r="16">
@@ -1217,7 +1217,7 @@
         <v>0.3661746016955936</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>0.3548306601547617</v>
+        <v>0.3548306601547618</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>0.3125807779298274</v>
@@ -1229,7 +1229,7 @@
         <v>0.3136468105772449</v>
       </c>
       <c r="J16" s="5" t="n">
-        <v>0.3448489100775312</v>
+        <v>0.3448489100775313</v>
       </c>
       <c r="K16" s="5" t="n">
         <v>0.3495015724036676</v>
@@ -1252,40 +1252,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.3693203380989286</v>
+        <v>0.3717388337818524</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.3002672945178352</v>
+        <v>0.2988294681374903</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.3490777234842819</v>
+        <v>0.3480690443253909</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.3381419319122425</v>
+        <v>0.336841231192187</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.2974546558524602</v>
+        <v>0.2973140839825996</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.2781805060108101</v>
+        <v>0.2775779116784686</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.2967928495807023</v>
+        <v>0.2985981326533309</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.3299383697459097</v>
+        <v>0.3304517592286549</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.3383829094224306</v>
+        <v>0.3364755464362655</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>0.2927839713769637</v>
+        <v>0.2938800589553052</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>0.3280409937916782</v>
+        <v>0.3279181109927571</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>0.3389720938003011</v>
+        <v>0.339502133854407</v>
       </c>
     </row>
     <row r="18">
@@ -1296,40 +1296,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.4046164673415439</v>
+        <v>0.4066347531794666</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.3334530710047529</v>
+        <v>0.3334010025642102</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.3825690033005749</v>
+        <v>0.3818921747083792</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.3744234534685325</v>
+        <v>0.3740889906060939</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.3283892909791853</v>
+        <v>0.3279646088152955</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.3108101819283514</v>
+        <v>0.3088344503183942</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.329911820625828</v>
+        <v>0.3291933258380119</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.3571596833465077</v>
+        <v>0.3588611141365993</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.3606263779104635</v>
+        <v>0.3608071005435427</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>0.3157109080424497</v>
+        <v>0.3154798960279724</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>0.3510897375620266</v>
+        <v>0.3505141753951386</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>0.3601177515336724</v>
+        <v>0.3615944727619541</v>
       </c>
     </row>
     <row r="19">
@@ -1600,40 +1600,40 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>203393</v>
+        <v>201246</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>158511</v>
+        <v>162308</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>187757</v>
+        <v>189724</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>175337</v>
+        <v>174697</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>162092</v>
+        <v>160744</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>142810</v>
+        <v>144310</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>161471</v>
+        <v>163329</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>206308</v>
+        <v>204103</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>377433</v>
+        <v>375206</v>
       </c>
       <c r="L6" s="6" t="n">
-        <v>316855</v>
+        <v>315402</v>
       </c>
       <c r="M6" s="6" t="n">
-        <v>362170</v>
+        <v>364790</v>
       </c>
       <c r="N6" s="6" t="n">
-        <v>394475</v>
+        <v>394900</v>
       </c>
     </row>
     <row r="7">
@@ -1644,40 +1644,40 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>251018</v>
+        <v>248621</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>206965</v>
+        <v>211372</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>234632</v>
+        <v>237263</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>225619</v>
+        <v>224809</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>208256</v>
+        <v>206480</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>190806</v>
+        <v>189249</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>207703</v>
+        <v>208195</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>245597</v>
+        <v>245813</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>443808</v>
+        <v>444091</v>
       </c>
       <c r="L7" s="6" t="n">
-        <v>382322</v>
+        <v>381970</v>
       </c>
       <c r="M7" s="6" t="n">
-        <v>435150</v>
+        <v>431922</v>
       </c>
       <c r="N7" s="6" t="n">
-        <v>459270</v>
+        <v>456710</v>
       </c>
     </row>
     <row r="8">
@@ -1780,40 +1780,40 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>331198</v>
+        <v>331209</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>283428</v>
+        <v>281360</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>315545</v>
+        <v>316825</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>323535</v>
+        <v>322301</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>257950</v>
+        <v>259572</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>289856</v>
+        <v>290707</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>249440</v>
+        <v>248625</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>324892</v>
+        <v>325311</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>608315</v>
+        <v>606470</v>
       </c>
       <c r="L10" s="6" t="n">
-        <v>587304</v>
+        <v>589507</v>
       </c>
       <c r="M10" s="6" t="n">
-        <v>580964</v>
+        <v>583848</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>664254</v>
+        <v>662879</v>
       </c>
     </row>
     <row r="11">
@@ -1824,40 +1824,40 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>393572</v>
+        <v>390906</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>344525</v>
+        <v>342693</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>378897</v>
+        <v>377328</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>393157</v>
+        <v>390633</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>313961</v>
+        <v>314959</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>352019</v>
+        <v>351823</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>309583</v>
+        <v>306340</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>377974</v>
+        <v>380556</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>692038</v>
+        <v>691787</v>
       </c>
       <c r="L11" s="6" t="n">
-        <v>676865</v>
+        <v>673297</v>
       </c>
       <c r="M11" s="6" t="n">
-        <v>665817</v>
+        <v>671345</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>752181</v>
+        <v>752833</v>
       </c>
     </row>
     <row r="12">
@@ -1960,40 +1960,40 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>217628</v>
+        <v>220582</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>213459</v>
+        <v>214991</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>235159</v>
+        <v>237486</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>244340</v>
+        <v>245466</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>157984</v>
+        <v>158178</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>203250</v>
+        <v>200760</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>244265</v>
+        <v>245238</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>245426</v>
+        <v>242237</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>393457</v>
+        <v>392724</v>
       </c>
       <c r="L14" s="6" t="n">
-        <v>430963</v>
+        <v>430457</v>
       </c>
       <c r="M14" s="6" t="n">
-        <v>492912</v>
+        <v>492564</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>502017</v>
+        <v>501323</v>
       </c>
     </row>
     <row r="15">
@@ -2004,40 +2004,40 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>271422</v>
+        <v>270750</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>270089</v>
+        <v>265961</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>288726</v>
+        <v>290299</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>307507</v>
+        <v>305426</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>203818</v>
+        <v>203534</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>253385</v>
+        <v>253013</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>299157</v>
+        <v>297213</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>293331</v>
+        <v>292980</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>460150</v>
+        <v>459049</v>
       </c>
       <c r="L15" s="6" t="n">
-        <v>507065</v>
+        <v>504653</v>
       </c>
       <c r="M15" s="6" t="n">
-        <v>572071</v>
+        <v>571903</v>
       </c>
       <c r="N15" s="6" t="n">
-        <v>578718</v>
+        <v>581532</v>
       </c>
     </row>
     <row r="16">
@@ -2140,40 +2140,40 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>393310</v>
+        <v>393065</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>310490</v>
+        <v>309548</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>379212</v>
+        <v>378926</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>381258</v>
+        <v>381997</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>366126</v>
+        <v>368924</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>295731</v>
+        <v>294313</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>346841</v>
+        <v>342660</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>404959</v>
+        <v>408139</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>778223</v>
+        <v>777061</v>
       </c>
       <c r="L18" s="6" t="n">
-        <v>621991</v>
+        <v>625262</v>
       </c>
       <c r="M18" s="6" t="n">
-        <v>736879</v>
+        <v>738633</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>803198</v>
+        <v>802926</v>
       </c>
     </row>
     <row r="19">
@@ -2184,40 +2184,40 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>450572</v>
+        <v>453772</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>371247</v>
+        <v>369538</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>438990</v>
+        <v>439825</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>444492</v>
+        <v>450635</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>428344</v>
+        <v>432640</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>356426</v>
+        <v>355753</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>407944</v>
+        <v>404715</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>464781</v>
+        <v>467218</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>864645</v>
+        <v>865941</v>
       </c>
       <c r="L19" s="6" t="n">
-        <v>706589</v>
+        <v>710179</v>
       </c>
       <c r="M19" s="6" t="n">
-        <v>822990</v>
+        <v>826756</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>894047</v>
+        <v>893118</v>
       </c>
     </row>
     <row r="20">
@@ -2320,40 +2320,40 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>1197769</v>
+        <v>1205613</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>1021821</v>
+        <v>1016928</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>1175723</v>
+        <v>1172326</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>1184066</v>
+        <v>1179511</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>997421</v>
+        <v>996949</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>982689</v>
+        <v>980561</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>1047285</v>
+        <v>1053655</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>1225276</v>
+        <v>1227183</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>2232094</v>
+        <v>2219513</v>
       </c>
       <c r="L22" s="6" t="n">
-        <v>2030632</v>
+        <v>2038234</v>
       </c>
       <c r="M22" s="6" t="n">
-        <v>2262419</v>
+        <v>2261572</v>
       </c>
       <c r="N22" s="6" t="n">
-        <v>2445797</v>
+        <v>2449622</v>
       </c>
     </row>
     <row r="23">
@@ -2364,40 +2364,40 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>1312240</v>
+        <v>1318786</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>1134753</v>
+        <v>1134576</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>1288525</v>
+        <v>1286245</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>1311112</v>
+        <v>1309941</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>1101150</v>
+        <v>1099726</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>1097956</v>
+        <v>1090976</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>1164151</v>
+        <v>1161616</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>1326367</v>
+        <v>1332685</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>2378820</v>
+        <v>2380012</v>
       </c>
       <c r="L23" s="6" t="n">
-        <v>2189644</v>
+        <v>2188042</v>
       </c>
       <c r="M23" s="6" t="n">
-        <v>2421381</v>
+        <v>2417411</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>2598370</v>
+        <v>2609025</v>
       </c>
     </row>
     <row r="24">
